--- a/visualization/data.xlsx
+++ b/visualization/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\now\master_thesis\my_experiment\wasm-docker-comparison\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85AAD27-04DD-4926-BB18-2F1B10CCE6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542238E5-85F5-4CAB-9BBA-7971F45EA7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2AD0577-FAA7-4A8A-8625-21F998F05787}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B2AD0577-FAA7-4A8A-8625-21F998F05787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Matrix size</t>
   </si>
@@ -53,13 +53,7 @@
     <t>Write time (s)</t>
   </si>
   <si>
-    <t>command time (s)</t>
-  </si>
-  <si>
     <t>CPU usage (%)</t>
-  </si>
-  <si>
-    <t>Overhead measurement (s)</t>
   </si>
   <si>
     <t>Initialization time (s)</t>
@@ -71,16 +65,19 @@
     <t>Docker</t>
   </si>
   <si>
-    <t>Memory usage (MB)</t>
+    <t>Execution time (s)</t>
   </si>
   <si>
-    <t>Execution time (s)</t>
+    <t>Memory usage (MB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,11 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,28 +447,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF328FB-343A-4F51-9621-F549EA9A7AC6}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -487,781 +484,654 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2">
-        <v>4.2319000000000002E-2</v>
+        <v>3.6242999999999997E-2</v>
       </c>
       <c r="D2">
-        <v>0.40762600000000004</v>
+        <v>0.36278700000000008</v>
       </c>
       <c r="E2">
-        <v>3.7441000000000009E-2</v>
+        <v>2.0819999999999998E-2</v>
       </c>
       <c r="F2">
-        <v>0.53516000000000008</v>
+        <v>0.42508400000000002</v>
       </c>
       <c r="G2">
-        <v>0.92311489000000013</v>
+        <v>1.9335899999999999</v>
       </c>
       <c r="H2">
-        <v>15.56484375</v>
+        <v>0.70710959060000023</v>
       </c>
       <c r="I2">
-        <v>99.5</v>
-      </c>
-      <c r="K2">
-        <f>G2-F2</f>
-        <v>0.38795489000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97.803408999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>0.15946399999999999</v>
+        <v>0.12692200000000001</v>
       </c>
       <c r="D3">
-        <v>5.6419130000000006</v>
+        <v>5.8580829999999997</v>
       </c>
       <c r="E3">
-        <v>0.15710499999999999</v>
+        <v>6.9387000000000004E-2</v>
       </c>
       <c r="F3">
-        <v>5.9584859999999997</v>
+        <v>6.0592220000000001</v>
       </c>
       <c r="G3">
-        <v>6.7585721599999999</v>
+        <v>7.7605460000000006</v>
       </c>
       <c r="H3">
-        <v>54.851976562499999</v>
+        <v>0.72110187400000081</v>
       </c>
       <c r="I3">
-        <v>99.051785714285685</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K12" si="0">G3-F3</f>
-        <v>0.80008616000000021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.391600000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>0.36346000000000001</v>
+        <v>0.265594</v>
       </c>
       <c r="D4">
-        <v>29.735863999999999</v>
+        <v>26.195297999999998</v>
       </c>
       <c r="E4">
-        <v>0.40094899999999994</v>
+        <v>0.14696599999999999</v>
       </c>
       <c r="F4">
-        <v>30.500281000000001</v>
+        <v>26.612837000000003</v>
       </c>
       <c r="G4">
-        <v>31.027973829999997</v>
+        <v>17.285159999999998</v>
       </c>
       <c r="H4">
-        <v>131.19921875</v>
+        <v>0.75510829629999543</v>
       </c>
       <c r="I4">
-        <v>99.076276276276275</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0.52769282999999589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.974165999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>0.62585299999999999</v>
+        <v>0.47291300000000003</v>
       </c>
       <c r="D5">
-        <v>87.060220999999999</v>
+        <v>81.907958999999991</v>
       </c>
       <c r="E5">
-        <v>0.79728100000000013</v>
+        <v>0.25451499999999994</v>
       </c>
       <c r="F5">
-        <v>88.487001000000006</v>
+        <v>82.640192999999996</v>
       </c>
       <c r="G5">
-        <v>89.074796169999999</v>
+        <v>30.652339999999999</v>
       </c>
       <c r="H5">
-        <v>212.07138672000002</v>
+        <v>0.76462612250000883</v>
       </c>
       <c r="I5">
-        <v>99.08552047852298</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0.58779516999999259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.997462999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>1.005307</v>
+        <v>1.0756459999999999</v>
       </c>
       <c r="D6">
-        <v>176.17834209999998</v>
+        <v>193.769904</v>
       </c>
       <c r="E6">
-        <v>1.108222</v>
+        <v>0.42558499999999999</v>
       </c>
       <c r="F6">
-        <v>178.29187899999997</v>
+        <v>195.27605700000001</v>
       </c>
       <c r="G6">
-        <v>178.82142821000005</v>
+        <v>112.03906000000003</v>
       </c>
       <c r="H6">
-        <v>348.40507812499999</v>
+        <v>0.83125661249999272</v>
       </c>
       <c r="I6">
-        <v>98.792778612397285</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0.52954921000008426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.984476999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>1.4513010000000002</v>
+        <v>2.3716849999999998</v>
       </c>
       <c r="D7">
-        <v>307.18202499999995</v>
+        <v>366.851586</v>
       </c>
       <c r="E7">
-        <v>1.9208969999999996</v>
+        <v>0.63888099999999992</v>
       </c>
       <c r="F7">
-        <v>310.55423000000002</v>
+        <v>369.86742800000002</v>
       </c>
       <c r="G7">
-        <v>311.12356297999997</v>
+        <v>132.92187999999996</v>
       </c>
       <c r="H7">
-        <v>494.63867157499999</v>
+        <v>1.3368123351999568</v>
       </c>
       <c r="I7">
-        <v>99.010867460878174</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0.56933297999995602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.986815000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3500</v>
       </c>
       <c r="C8">
-        <v>1.9491990000000001</v>
+        <v>1.5446880000000001</v>
       </c>
       <c r="D8">
-        <v>489.276588</v>
+        <v>451.09423699999996</v>
       </c>
       <c r="E8">
-        <v>2.8020130000000001</v>
+        <v>0.78377699999999995</v>
       </c>
       <c r="F8">
-        <v>494.02781000000004</v>
+        <v>453.42816899999997</v>
       </c>
       <c r="G8">
-        <v>494.70543808000002</v>
+        <v>157.74609000000004</v>
       </c>
       <c r="H8">
-        <v>667.39686499999993</v>
+        <v>0.96413909149996957</v>
       </c>
       <c r="I8">
-        <v>98.780226204661929</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0.67762807999997676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.520223000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>4000</v>
       </c>
       <c r="C9">
-        <v>2.6329260000000003</v>
+        <v>2.0708049999999996</v>
       </c>
       <c r="D9">
-        <v>736.44390099999998</v>
+        <v>659.93451299999992</v>
       </c>
       <c r="E9">
-        <v>3.8355240000000004</v>
+        <v>1.161934</v>
       </c>
       <c r="F9">
-        <v>742.91235799999993</v>
+        <v>663.17204800000002</v>
       </c>
       <c r="G9">
-        <v>743.54185575999986</v>
+        <v>186.35937999999996</v>
       </c>
       <c r="H9">
-        <v>840.79335937500002</v>
+        <v>0.92969473849993578</v>
       </c>
       <c r="I9">
-        <v>98.994720477704874</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.62949775999993562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.475270999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>4500</v>
       </c>
       <c r="C10">
-        <v>3.3745319999999999</v>
+        <v>5.364859</v>
       </c>
       <c r="D10">
-        <v>1081.4079080000001</v>
+        <v>1071.121181</v>
       </c>
       <c r="E10">
-        <v>4.6786589999999997</v>
+        <v>1.9334479999999998</v>
       </c>
       <c r="F10">
-        <v>1089.46111</v>
+        <v>1078.4246410000001</v>
       </c>
       <c r="G10">
-        <v>1090.0715593599998</v>
+        <v>218.82422000000003</v>
       </c>
       <c r="H10">
-        <v>1100.6296875</v>
+        <v>1.1607037810998415</v>
       </c>
       <c r="I10">
-        <v>98.962774640867522</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0.61044935999984773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.554563000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>5000</v>
       </c>
       <c r="C11">
-        <v>4.3873379999999988</v>
+        <v>5.2999290000000006</v>
       </c>
       <c r="D11">
-        <v>1531.8331800000001</v>
+        <v>1466.4175770000002</v>
       </c>
       <c r="E11">
-        <v>5.9391489999999996</v>
+        <v>2.615367</v>
       </c>
       <c r="F11">
-        <v>1542.169676</v>
+        <v>1474.338452</v>
       </c>
       <c r="G11">
-        <v>1542.86790283</v>
+        <v>255.07031000000001</v>
       </c>
       <c r="H11">
-        <v>1349.0023437499999</v>
+        <v>1.123237702399918</v>
       </c>
       <c r="I11">
-        <v>99.006713986025076</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0.69822683000006691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.552760000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>5500</v>
       </c>
       <c r="C12">
-        <v>5.5970010000000006</v>
+        <v>6.0821489999999994</v>
       </c>
       <c r="D12">
-        <v>2018.4659460000003</v>
+        <v>2113.7681010000001</v>
       </c>
       <c r="E12">
-        <v>7.6606139999999998</v>
+        <v>3.1921010000000001</v>
       </c>
       <c r="F12">
-        <v>2031.723571</v>
+        <v>2123.0480210000001</v>
       </c>
       <c r="G12">
-        <v>2032.3914172500001</v>
+        <v>295.13672000000003</v>
       </c>
       <c r="H12">
-        <v>1762.4515624999999</v>
+        <v>1.2846877698999699</v>
       </c>
       <c r="I12">
-        <v>99.012509356588836</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0.66784625000013875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.729159999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>500</v>
       </c>
       <c r="C13">
-        <v>3.1349000000000002E-2</v>
+        <v>4.6646000000000007E-2</v>
       </c>
       <c r="D13">
-        <v>0.36439799999999994</v>
+        <v>0.399088</v>
       </c>
       <c r="E13">
-        <v>1.5625999999999998E-2</v>
+        <v>3.7150000000000002E-2</v>
       </c>
       <c r="F13">
-        <v>0.41575899999999999</v>
+        <v>0.48288800000000009</v>
       </c>
       <c r="G13">
-        <v>1.3370008700000002</v>
+        <v>14.1875</v>
       </c>
       <c r="H13">
-        <v>5.5546860000000002</v>
+        <v>4.8159970000000003E-2</v>
       </c>
       <c r="I13">
-        <v>97.189533000000011</v>
-      </c>
-      <c r="J13">
-        <v>1.725118E-4</v>
-      </c>
-      <c r="K13">
-        <f>G13-F13-J13</f>
-        <v>0.92106935820000024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>1000</v>
       </c>
       <c r="C14">
-        <v>0.11976800000000001</v>
+        <v>0.169518</v>
       </c>
       <c r="D14">
-        <v>5.4105410000000003</v>
+        <v>5.7538970000000003</v>
       </c>
       <c r="E14">
-        <v>7.5023999999999993E-2</v>
+        <v>0.16064699999999998</v>
       </c>
       <c r="F14">
-        <v>5.6103059999999996</v>
+        <v>6.0840699999999996</v>
       </c>
       <c r="G14">
-        <v>6.6172331600000005</v>
+        <v>53.5</v>
       </c>
       <c r="H14">
-        <v>7.7515619999999998</v>
+        <v>5.2104589999999985E-2</v>
       </c>
       <c r="I14">
-        <v>99.809855999999996</v>
-      </c>
-      <c r="J14">
-        <v>1.7092959999999999E-4</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K22" si="1">G14-F14-J14</f>
-        <v>1.0067562304000008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.135714285714243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>1500</v>
       </c>
       <c r="C15">
-        <v>0.24804199999999996</v>
+        <v>0.37875399999999998</v>
       </c>
       <c r="D15">
-        <v>25.975760000000001</v>
+        <v>29.214182000000001</v>
       </c>
       <c r="E15">
-        <v>0.14711099999999999</v>
+        <v>0.39658299999999996</v>
       </c>
       <c r="F15">
-        <v>26.375603000000002</v>
+        <v>29.989526000000001</v>
       </c>
       <c r="G15">
-        <v>27.297008129999995</v>
+        <v>130.75</v>
       </c>
       <c r="H15">
-        <v>17.285159999999998</v>
+        <v>5.6438040000000453E-2</v>
       </c>
       <c r="I15">
-        <v>99.979915999999989</v>
-      </c>
-      <c r="J15">
-        <v>1.8610729999999999E-4</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>0.92121902269999301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98.922466752466704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>2000</v>
       </c>
       <c r="C16">
-        <v>0.45544499999999999</v>
+        <v>0.63856200000000007</v>
       </c>
       <c r="D16">
-        <v>84.157298999999995</v>
+        <v>85.133276999999993</v>
       </c>
       <c r="E16">
-        <v>0.25237199999999999</v>
+        <v>0.71340000000000003</v>
       </c>
       <c r="F16">
-        <v>84.870506999999989</v>
+        <v>86.491954800000002</v>
       </c>
       <c r="G16">
-        <v>85.857462380000001</v>
+        <v>210.75</v>
       </c>
       <c r="H16">
-        <v>30.652339999999999</v>
+        <v>5.7838340000002118E-2</v>
       </c>
       <c r="I16">
-        <v>99.994616999999991</v>
-      </c>
-      <c r="J16">
-        <v>1.733471E-4</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>0.98678203290001187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98.936793164290435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>2500</v>
       </c>
       <c r="C17">
-        <v>0.80402699999999994</v>
+        <v>1.0255100000000001</v>
       </c>
       <c r="D17">
-        <v>165.214921</v>
+        <v>174.64063200000001</v>
       </c>
       <c r="E17">
-        <v>0.38256499999999993</v>
+        <v>1.318182</v>
       </c>
       <c r="F17">
-        <v>166.40642099999999</v>
+        <v>176.98433100000003</v>
       </c>
       <c r="G17">
-        <v>167.43244131</v>
+        <v>387.25</v>
       </c>
       <c r="H17">
-        <v>105.63906000000001</v>
+        <v>9.787452000000485E-2</v>
       </c>
       <c r="I17">
-        <v>99.997705999999994</v>
-      </c>
-      <c r="J17">
-        <v>2.3993579999999999E-4</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>1.0257803742000069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99.038360304081721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>3000</v>
       </c>
       <c r="C18">
-        <v>1.1645759999999998</v>
+        <v>1.502702</v>
       </c>
       <c r="D18">
-        <v>293.84774900000002</v>
+        <v>308.05302199999994</v>
       </c>
       <c r="E18">
-        <v>0.56198199999999987</v>
+        <v>1.9594679999999998</v>
       </c>
       <c r="F18">
-        <v>295.58042699999999</v>
+        <v>311.51519999999994</v>
       </c>
       <c r="G18">
-        <v>296.71854877999999</v>
+        <v>519.625</v>
       </c>
       <c r="H18">
-        <v>120.12187999999996</v>
+        <v>0.1177109600000108</v>
       </c>
       <c r="I18">
-        <v>100</v>
-      </c>
-      <c r="J18">
-        <v>3.1034160000000004E-4</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>1.1378114384000058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98.960789937047409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>3500</v>
       </c>
       <c r="C19">
-        <v>1.8911719999999996</v>
+        <v>1.9555940000000001</v>
       </c>
       <c r="D19">
-        <v>465.02522399999998</v>
+        <v>475.79423200000002</v>
       </c>
       <c r="E19">
-        <v>0.7747814999999999</v>
+        <v>2.6464430000000001</v>
       </c>
       <c r="F19">
-        <v>467.69930949999997</v>
+        <v>480.396278</v>
       </c>
       <c r="G19">
-        <v>468.92119246000004</v>
+        <v>670.3125</v>
       </c>
       <c r="H19">
-        <v>151.34609000000006</v>
+        <v>0.11346551000000886</v>
       </c>
       <c r="I19">
-        <v>99.99248200000001</v>
-      </c>
-      <c r="J19">
-        <v>5.0692610000000003E-4</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>1.2213760339000732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98.946107213605018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>4000</v>
       </c>
       <c r="C20">
-        <v>2.6009830000000003</v>
+        <v>2.6806469999999996</v>
       </c>
       <c r="D20">
-        <v>653.35986200000002</v>
+        <v>710.36124100000006</v>
       </c>
       <c r="E20">
-        <v>1.177489</v>
+        <v>3.7931040000000005</v>
       </c>
       <c r="F20">
-        <v>657.1445389999999</v>
+        <v>716.83499699999993</v>
       </c>
       <c r="G20">
-        <v>658.42050616000006</v>
+        <v>839.4375</v>
       </c>
       <c r="H20">
-        <v>173.55937999999998</v>
+        <v>0.13041663000001336</v>
       </c>
       <c r="I20">
-        <v>99.990123000000011</v>
-      </c>
-      <c r="J20">
-        <v>3.6913759999999995E-4</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>1.275598022400164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98.95720960041993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>4500</v>
       </c>
       <c r="C21">
-        <v>4.1847099999999999</v>
+        <v>3.342006</v>
       </c>
       <c r="D21">
-        <v>991.14781545454559</v>
+        <v>1095.5076450000001</v>
       </c>
       <c r="E21">
-        <v>1.7173400000000001</v>
+        <v>4.727532000000001</v>
       </c>
       <c r="F21">
-        <v>997.05740090909103</v>
+        <v>1103.577194</v>
       </c>
       <c r="G21">
-        <v>998.33241143636371</v>
+        <v>1308.3125</v>
       </c>
       <c r="H21">
-        <v>201.36967454545456</v>
+        <v>0.17369487999997091</v>
       </c>
       <c r="I21">
-        <v>99.971209090909099</v>
-      </c>
-      <c r="J21">
-        <v>7.9508654545454543E-4</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>1.2742154407272297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98.935944652796067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>5000</v>
       </c>
-      <c r="C22">
-        <v>8.8330379999999984</v>
-      </c>
-      <c r="D22">
-        <v>1354.8214490000003</v>
-      </c>
-      <c r="E22">
-        <v>2.8201519999999998</v>
-      </c>
-      <c r="F22">
-        <v>1366.4884127999999</v>
+      <c r="C22" s="2">
+        <v>4.2234150000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1509.3171459999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.8684060000000002</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1519.4089779999999</v>
       </c>
       <c r="G22">
-        <v>1368.1018710599999</v>
+        <v>1545.375</v>
       </c>
       <c r="H22">
-        <v>248.67031000000003</v>
+        <v>0.19033222000000477</v>
       </c>
       <c r="I22">
-        <v>99.991501999999997</v>
-      </c>
-      <c r="J22">
-        <v>2.1397148999999999E-3</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>1.6113185451000158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98.908805284715683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>5500</v>
       </c>
       <c r="C23">
-        <v>9.6749779999999994</v>
+        <v>4.9863649999999993</v>
       </c>
       <c r="D23">
-        <v>1898.2435350000001</v>
+        <v>1965.6456860000003</v>
       </c>
       <c r="E23">
-        <v>3.066214</v>
+        <v>7.408588</v>
       </c>
       <c r="F23">
-        <v>1910.9949320000001</v>
+        <v>1978.0406479999997</v>
       </c>
       <c r="G23">
-        <v>1912.3977352299996</v>
+        <v>2265.125</v>
       </c>
       <c r="H23">
-        <v>282.33672000000001</v>
+        <v>0.21425709999998616</v>
       </c>
       <c r="I23">
-        <v>99.963334000000003</v>
-      </c>
-      <c r="J23">
-        <v>5.6104669999999992E-3</v>
-      </c>
-      <c r="K23">
-        <f>G23-F23-J23</f>
-        <v>1.3971927629995631</v>
+        <v>98.932430368501187</v>
       </c>
     </row>
   </sheetData>

--- a/visualization/data.xlsx
+++ b/visualization/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\now\master_thesis\my_experiment\wasm-docker-comparison\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542238E5-85F5-4CAB-9BBA-7971F45EA7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF7DD06-F0A9-4A90-ABE3-CFE7A22B206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B2AD0577-FAA7-4A8A-8625-21F998F05787}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2AD0577-FAA7-4A8A-8625-21F998F05787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,14 +449,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF328FB-343A-4F51-9621-F549EA9A7AC6}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
@@ -504,25 +504,25 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>3.6242999999999997E-2</v>
+        <v>4.0315000000000004E-2</v>
       </c>
       <c r="D2">
-        <v>0.36278700000000008</v>
+        <v>0.37406200000000001</v>
       </c>
       <c r="E2">
-        <v>2.0819999999999998E-2</v>
+        <v>1.7547E-2</v>
       </c>
       <c r="F2">
-        <v>0.42508400000000002</v>
+        <v>0.43670199999999992</v>
       </c>
       <c r="G2">
-        <v>1.9335899999999999</v>
+        <v>561.73690800000008</v>
       </c>
       <c r="H2">
-        <v>0.70710959060000023</v>
+        <v>0.76539985170000002</v>
       </c>
       <c r="I2">
-        <v>97.803408999999988</v>
+        <v>98.462383000000003</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -533,25 +533,25 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>0.12692200000000001</v>
+        <v>0.14466099999999998</v>
       </c>
       <c r="D3">
-        <v>5.8580829999999997</v>
+        <v>5.5420719999999992</v>
       </c>
       <c r="E3">
-        <v>6.9387000000000004E-2</v>
+        <v>6.7990000000000009E-2</v>
       </c>
       <c r="F3">
-        <v>6.0592220000000001</v>
+        <v>5.7593580000000006</v>
       </c>
       <c r="G3">
-        <v>7.7605460000000006</v>
+        <v>565.30042800000012</v>
       </c>
       <c r="H3">
-        <v>0.72110187400000081</v>
+        <v>0.77416018910000017</v>
       </c>
       <c r="I3">
-        <v>99.391600000000011</v>
+        <v>99.598020999999989</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -562,25 +562,25 @@
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>0.265594</v>
+        <v>0.29814200000000002</v>
       </c>
       <c r="D4">
-        <v>26.195297999999998</v>
+        <v>25.746622000000002</v>
       </c>
       <c r="E4">
-        <v>0.14696599999999999</v>
+        <v>0.14802100000000001</v>
       </c>
       <c r="F4">
-        <v>26.612837000000003</v>
+        <v>26.197103999999996</v>
       </c>
       <c r="G4">
-        <v>17.285159999999998</v>
+        <v>575.30367999999999</v>
       </c>
       <c r="H4">
-        <v>0.75510829629999543</v>
+        <v>0.81716950510000286</v>
       </c>
       <c r="I4">
-        <v>99.974165999999997</v>
+        <v>99.126615999999984</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -591,25 +591,25 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>0.47291300000000003</v>
+        <v>0.51958900000000008</v>
       </c>
       <c r="D5">
-        <v>81.907958999999991</v>
+        <v>79.709877999999989</v>
       </c>
       <c r="E5">
-        <v>0.25451499999999994</v>
+        <v>0.26037199999999999</v>
       </c>
       <c r="F5">
-        <v>82.640192999999996</v>
+        <v>80.49410499999999</v>
       </c>
       <c r="G5">
-        <v>30.652339999999999</v>
+        <v>589.32019000000014</v>
       </c>
       <c r="H5">
-        <v>0.76462612250000883</v>
+        <v>0.77876618349999982</v>
       </c>
       <c r="I5">
-        <v>99.997462999999996</v>
+        <v>99.382960999999995</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -620,25 +620,25 @@
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>1.0756459999999999</v>
+        <v>0.88073699999999988</v>
       </c>
       <c r="D6">
-        <v>193.769904</v>
+        <v>164.71641100000002</v>
       </c>
       <c r="E6">
-        <v>0.42558499999999999</v>
+        <v>0.38848999999999995</v>
       </c>
       <c r="F6">
-        <v>195.27605700000001</v>
+        <v>165.99040000000002</v>
       </c>
       <c r="G6">
-        <v>112.03906000000003</v>
+        <v>654.527692</v>
       </c>
       <c r="H6">
-        <v>0.83125661249999272</v>
+        <v>0.89868549099998052</v>
       </c>
       <c r="I6">
-        <v>99.984476999999998</v>
+        <v>99.359617</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -649,25 +649,25 @@
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>2.3716849999999998</v>
+        <v>1.2209080000000001</v>
       </c>
       <c r="D7">
-        <v>366.851586</v>
+        <v>292.67709000000002</v>
       </c>
       <c r="E7">
-        <v>0.63888099999999992</v>
+        <v>0.54593100000000006</v>
       </c>
       <c r="F7">
-        <v>369.86742800000002</v>
+        <v>294.449051</v>
       </c>
       <c r="G7">
-        <v>132.92187999999996</v>
+        <v>676.42490900000007</v>
       </c>
       <c r="H7">
-        <v>1.3368123351999568</v>
+        <v>0.8933892905999905</v>
       </c>
       <c r="I7">
-        <v>99.986815000000007</v>
+        <v>99.145011000000011</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -678,25 +678,25 @@
         <v>3500</v>
       </c>
       <c r="C8">
-        <v>1.5446880000000001</v>
+        <v>1.6298109999999997</v>
       </c>
       <c r="D8">
-        <v>451.09423699999996</v>
+        <v>456.05521099999999</v>
       </c>
       <c r="E8">
-        <v>0.78377699999999995</v>
+        <v>0.76395399999999991</v>
       </c>
       <c r="F8">
-        <v>453.42816899999997</v>
+        <v>458.45398399999993</v>
       </c>
       <c r="G8">
-        <v>157.74609000000004</v>
+        <v>689.03321500000015</v>
       </c>
       <c r="H8">
-        <v>0.96413909149996957</v>
+        <v>1.2263776955000567</v>
       </c>
       <c r="I8">
-        <v>99.520223000000001</v>
+        <v>99.561093</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -707,25 +707,25 @@
         <v>4000</v>
       </c>
       <c r="C9">
-        <v>2.0708049999999996</v>
+        <v>2.2749229999999998</v>
       </c>
       <c r="D9">
-        <v>659.93451299999992</v>
+        <v>661.21831399999996</v>
       </c>
       <c r="E9">
-        <v>1.161934</v>
+        <v>1.1561399999999999</v>
       </c>
       <c r="F9">
-        <v>663.17204800000002</v>
+        <v>664.7468922999999</v>
       </c>
       <c r="G9">
-        <v>186.35937999999996</v>
+        <v>719.03641500000015</v>
       </c>
       <c r="H9">
-        <v>0.92969473849993578</v>
+        <v>1.1345237217002104</v>
       </c>
       <c r="I9">
-        <v>99.475270999999992</v>
+        <v>99.450023999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -736,25 +736,25 @@
         <v>4500</v>
       </c>
       <c r="C10">
-        <v>5.364859</v>
+        <v>3.2225139999999994</v>
       </c>
       <c r="D10">
-        <v>1071.121181</v>
+        <v>1014.477743</v>
       </c>
       <c r="E10">
-        <v>1.9334479999999998</v>
+        <v>1.7799119999999999</v>
       </c>
       <c r="F10">
-        <v>1078.4246410000001</v>
+        <v>1019.4852539999999</v>
       </c>
       <c r="G10">
-        <v>218.82422000000003</v>
+        <v>753.07826999999997</v>
       </c>
       <c r="H10">
-        <v>1.1607037810998415</v>
+        <v>1.0610198906998869</v>
       </c>
       <c r="I10">
-        <v>99.554563000000002</v>
+        <v>99.444389000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -765,25 +765,25 @@
         <v>5000</v>
       </c>
       <c r="C11">
-        <v>5.2999290000000006</v>
+        <v>4.4215290000000005</v>
       </c>
       <c r="D11">
-        <v>1466.4175770000002</v>
+        <v>1351.746848</v>
       </c>
       <c r="E11">
-        <v>2.615367</v>
+        <v>2.4355809999999996</v>
       </c>
       <c r="F11">
-        <v>1474.338452</v>
+        <v>1358.6087310000003</v>
       </c>
       <c r="G11">
-        <v>255.07031000000001</v>
+        <v>791.0850549999999</v>
       </c>
       <c r="H11">
-        <v>1.123237702399918</v>
+        <v>1.1303745282995989</v>
       </c>
       <c r="I11">
-        <v>99.552760000000006</v>
+        <v>99.581677999999997</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -794,25 +794,25 @@
         <v>5500</v>
       </c>
       <c r="C12">
-        <v>6.0821489999999994</v>
+        <v>6.5283230000000003</v>
       </c>
       <c r="D12">
-        <v>2113.7681010000001</v>
+        <v>1926.9737460000001</v>
       </c>
       <c r="E12">
-        <v>3.1921010000000001</v>
+        <v>3.0917139999999996</v>
       </c>
       <c r="F12">
-        <v>2123.0480210000001</v>
+        <v>1936.5988019999998</v>
       </c>
       <c r="G12">
-        <v>295.13672000000003</v>
+        <v>846.51950199999987</v>
       </c>
       <c r="H12">
-        <v>1.2846877698999699</v>
+        <v>1.1106633383001581</v>
       </c>
       <c r="I12">
-        <v>99.729159999999993</v>
+        <v>99.683218000000011</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
